--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashish.vijayvargia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elshahato/agentic/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B733FDD5-92CD-4674-8BE2-F1040F3E16E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF83C72C-A59E-AF46-A882-DD89FD5F723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7007" uniqueCount="2277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7021" uniqueCount="2279">
   <si>
     <t>incident_id</t>
   </si>
@@ -6867,13 +6867,19 @@
   </si>
   <si>
     <t>2024-09-09 01:55:00</t>
+  </si>
+  <si>
+    <t>INC-2001</t>
+  </si>
+  <si>
+    <t>INC-2002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7234,19 +7240,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:G1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
+      <selection activeCell="A1004" sqref="A1004"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="66" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7269,7 +7277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -7315,7 +7323,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -7338,7 +7346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -7361,7 +7369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -7384,7 +7392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -7407,7 +7415,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -7430,7 +7438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -7453,7 +7461,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -7476,7 +7484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -7499,7 +7507,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -7522,7 +7530,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -7545,7 +7553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>70</v>
       </c>
@@ -7568,7 +7576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -7591,7 +7599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -7614,7 +7622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -7637,7 +7645,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -7660,7 +7668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -7683,7 +7691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
@@ -7706,7 +7714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>96</v>
       </c>
@@ -7729,7 +7737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>99</v>
       </c>
@@ -7752,7 +7760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -7775,7 +7783,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -7798,7 +7806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -7821,7 +7829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -7844,7 +7852,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -7867,7 +7875,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -7890,7 +7898,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -7913,7 +7921,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>124</v>
       </c>
@@ -7936,7 +7944,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -7959,7 +7967,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>130</v>
       </c>
@@ -7982,7 +7990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>133</v>
       </c>
@@ -8005,7 +8013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>136</v>
       </c>
@@ -8028,7 +8036,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -8051,7 +8059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -8074,7 +8082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -8097,7 +8105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -8120,7 +8128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -8143,7 +8151,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -8166,7 +8174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -8189,7 +8197,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -8212,7 +8220,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -8235,7 +8243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>166</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -8281,7 +8289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -8304,7 +8312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -8327,7 +8335,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -8350,7 +8358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -8373,7 +8381,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>182</v>
       </c>
@@ -8396,7 +8404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>185</v>
       </c>
@@ -8419,7 +8427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>188</v>
       </c>
@@ -8442,7 +8450,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>191</v>
       </c>
@@ -8465,7 +8473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>194</v>
       </c>
@@ -8488,7 +8496,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -8511,7 +8519,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -8557,7 +8565,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>206</v>
       </c>
@@ -8580,7 +8588,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>209</v>
       </c>
@@ -8603,7 +8611,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>212</v>
       </c>
@@ -8626,7 +8634,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>215</v>
       </c>
@@ -8649,7 +8657,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>218</v>
       </c>
@@ -8672,7 +8680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>220</v>
       </c>
@@ -8695,7 +8703,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>223</v>
       </c>
@@ -8718,7 +8726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>226</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -8764,7 +8772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -8787,7 +8795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -8810,7 +8818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>237</v>
       </c>
@@ -8833,7 +8841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>240</v>
       </c>
@@ -8856,7 +8864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>243</v>
       </c>
@@ -8879,7 +8887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>245</v>
       </c>
@@ -8902,7 +8910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>248</v>
       </c>
@@ -8925,7 +8933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>251</v>
       </c>
@@ -8948,7 +8956,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>253</v>
       </c>
@@ -8971,7 +8979,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>256</v>
       </c>
@@ -8994,7 +9002,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -9017,7 +9025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -9040,7 +9048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -9063,7 +9071,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>266</v>
       </c>
@@ -9086,7 +9094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>268</v>
       </c>
@@ -9109,7 +9117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -9132,7 +9140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>273</v>
       </c>
@@ -9155,7 +9163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>276</v>
       </c>
@@ -9178,7 +9186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>279</v>
       </c>
@@ -9201,7 +9209,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>282</v>
       </c>
@@ -9224,7 +9232,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>285</v>
       </c>
@@ -9247,7 +9255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>287</v>
       </c>
@@ -9270,7 +9278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>290</v>
       </c>
@@ -9293,7 +9301,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>292</v>
       </c>
@@ -9316,7 +9324,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>294</v>
       </c>
@@ -9339,7 +9347,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>296</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>298</v>
       </c>
@@ -9385,7 +9393,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>301</v>
       </c>
@@ -9408,7 +9416,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>303</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>306</v>
       </c>
@@ -9454,7 +9462,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>309</v>
       </c>
@@ -9477,7 +9485,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>312</v>
       </c>
@@ -9500,7 +9508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>314</v>
       </c>
@@ -9523,7 +9531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>317</v>
       </c>
@@ -9546,7 +9554,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>320</v>
       </c>
@@ -9569,7 +9577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>323</v>
       </c>
@@ -9592,7 +9600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>326</v>
       </c>
@@ -9615,7 +9623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>329</v>
       </c>
@@ -9638,7 +9646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>332</v>
       </c>
@@ -9661,7 +9669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>334</v>
       </c>
@@ -9684,7 +9692,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>337</v>
       </c>
@@ -9707,7 +9715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>340</v>
       </c>
@@ -9730,7 +9738,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>343</v>
       </c>
@@ -9753,7 +9761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>346</v>
       </c>
@@ -9776,7 +9784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>348</v>
       </c>
@@ -9799,7 +9807,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>351</v>
       </c>
@@ -9822,7 +9830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>353</v>
       </c>
@@ -9845,7 +9853,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>355</v>
       </c>
@@ -9868,7 +9876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>357</v>
       </c>
@@ -9891,7 +9899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>359</v>
       </c>
@@ -9914,7 +9922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>362</v>
       </c>
@@ -9937,7 +9945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>365</v>
       </c>
@@ -9960,7 +9968,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>368</v>
       </c>
@@ -9983,7 +9991,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>371</v>
       </c>
@@ -10006,7 +10014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>374</v>
       </c>
@@ -10029,7 +10037,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>376</v>
       </c>
@@ -10052,7 +10060,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>379</v>
       </c>
@@ -10075,7 +10083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>382</v>
       </c>
@@ -10098,7 +10106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>384</v>
       </c>
@@ -10121,7 +10129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>386</v>
       </c>
@@ -10144,7 +10152,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>389</v>
       </c>
@@ -10167,7 +10175,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>391</v>
       </c>
@@ -10190,7 +10198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>394</v>
       </c>
@@ -10213,7 +10221,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>396</v>
       </c>
@@ -10236,7 +10244,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>399</v>
       </c>
@@ -10259,7 +10267,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>402</v>
       </c>
@@ -10282,7 +10290,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>404</v>
       </c>
@@ -10305,7 +10313,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>406</v>
       </c>
@@ -10328,7 +10336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>408</v>
       </c>
@@ -10351,7 +10359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>411</v>
       </c>
@@ -10374,7 +10382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>413</v>
       </c>
@@ -10397,7 +10405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>416</v>
       </c>
@@ -10420,7 +10428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>419</v>
       </c>
@@ -10443,7 +10451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>422</v>
       </c>
@@ -10466,7 +10474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>424</v>
       </c>
@@ -10489,7 +10497,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>427</v>
       </c>
@@ -10512,7 +10520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>429</v>
       </c>
@@ -10535,7 +10543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>432</v>
       </c>
@@ -10558,7 +10566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>434</v>
       </c>
@@ -10581,7 +10589,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>436</v>
       </c>
@@ -10604,7 +10612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>438</v>
       </c>
@@ -10627,7 +10635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>440</v>
       </c>
@@ -10650,7 +10658,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>443</v>
       </c>
@@ -10673,7 +10681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>445</v>
       </c>
@@ -10696,7 +10704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>448</v>
       </c>
@@ -10719,7 +10727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -10742,7 +10750,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -10765,7 +10773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>455</v>
       </c>
@@ -10788,7 +10796,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>458</v>
       </c>
@@ -10811,7 +10819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>460</v>
       </c>
@@ -10834,7 +10842,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>463</v>
       </c>
@@ -10857,7 +10865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>465</v>
       </c>
@@ -10880,7 +10888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>468</v>
       </c>
@@ -10903,7 +10911,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>470</v>
       </c>
@@ -10926,7 +10934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>473</v>
       </c>
@@ -10949,7 +10957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>475</v>
       </c>
@@ -10972,7 +10980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>477</v>
       </c>
@@ -10995,7 +11003,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>480</v>
       </c>
@@ -11018,7 +11026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>483</v>
       </c>
@@ -11041,7 +11049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>485</v>
       </c>
@@ -11064,7 +11072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>488</v>
       </c>
@@ -11087,7 +11095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>491</v>
       </c>
@@ -11110,7 +11118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>493</v>
       </c>
@@ -11133,7 +11141,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>496</v>
       </c>
@@ -11156,7 +11164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>499</v>
       </c>
@@ -11179,7 +11187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>502</v>
       </c>
@@ -11202,7 +11210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>505</v>
       </c>
@@ -11225,7 +11233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>507</v>
       </c>
@@ -11248,7 +11256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>510</v>
       </c>
@@ -11271,7 +11279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>513</v>
       </c>
@@ -11294,7 +11302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>516</v>
       </c>
@@ -11317,7 +11325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>519</v>
       </c>
@@ -11340,7 +11348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>522</v>
       </c>
@@ -11363,7 +11371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>525</v>
       </c>
@@ -11386,7 +11394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>527</v>
       </c>
@@ -11409,7 +11417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>530</v>
       </c>
@@ -11432,7 +11440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>532</v>
       </c>
@@ -11455,7 +11463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>535</v>
       </c>
@@ -11478,7 +11486,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>538</v>
       </c>
@@ -11501,7 +11509,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>541</v>
       </c>
@@ -11524,7 +11532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>544</v>
       </c>
@@ -11547,7 +11555,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>546</v>
       </c>
@@ -11570,7 +11578,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>549</v>
       </c>
@@ -11593,7 +11601,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>552</v>
       </c>
@@ -11616,7 +11624,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>554</v>
       </c>
@@ -11639,7 +11647,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>556</v>
       </c>
@@ -11662,7 +11670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>559</v>
       </c>
@@ -11685,7 +11693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>562</v>
       </c>
@@ -11708,7 +11716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>564</v>
       </c>
@@ -11731,7 +11739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>566</v>
       </c>
@@ -11754,7 +11762,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>569</v>
       </c>
@@ -11777,7 +11785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>572</v>
       </c>
@@ -11800,7 +11808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>574</v>
       </c>
@@ -11823,7 +11831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -11846,7 +11854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>579</v>
       </c>
@@ -11869,7 +11877,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>582</v>
       </c>
@@ -11892,7 +11900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>585</v>
       </c>
@@ -11915,7 +11923,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>587</v>
       </c>
@@ -11938,7 +11946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>590</v>
       </c>
@@ -11961,7 +11969,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>592</v>
       </c>
@@ -11984,7 +11992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>594</v>
       </c>
@@ -12007,7 +12015,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>597</v>
       </c>
@@ -12030,7 +12038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>600</v>
       </c>
@@ -12053,7 +12061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>602</v>
       </c>
@@ -12076,7 +12084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>604</v>
       </c>
@@ -12099,7 +12107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>607</v>
       </c>
@@ -12122,7 +12130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>609</v>
       </c>
@@ -12145,7 +12153,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>611</v>
       </c>
@@ -12168,7 +12176,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>613</v>
       </c>
@@ -12191,7 +12199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>615</v>
       </c>
@@ -12214,7 +12222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>617</v>
       </c>
@@ -12237,7 +12245,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>619</v>
       </c>
@@ -12260,7 +12268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>622</v>
       </c>
@@ -12283,7 +12291,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>624</v>
       </c>
@@ -12306,7 +12314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>627</v>
       </c>
@@ -12329,7 +12337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>629</v>
       </c>
@@ -12352,7 +12360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>631</v>
       </c>
@@ -12375,7 +12383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>633</v>
       </c>
@@ -12398,7 +12406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>636</v>
       </c>
@@ -12421,7 +12429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>639</v>
       </c>
@@ -12444,7 +12452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>641</v>
       </c>
@@ -12467,7 +12475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>643</v>
       </c>
@@ -12490,7 +12498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>646</v>
       </c>
@@ -12513,7 +12521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>649</v>
       </c>
@@ -12536,7 +12544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>652</v>
       </c>
@@ -12559,7 +12567,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>654</v>
       </c>
@@ -12582,7 +12590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>657</v>
       </c>
@@ -12605,7 +12613,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>659</v>
       </c>
@@ -12628,7 +12636,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>661</v>
       </c>
@@ -12651,7 +12659,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>664</v>
       </c>
@@ -12674,7 +12682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>666</v>
       </c>
@@ -12697,7 +12705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>669</v>
       </c>
@@ -12720,7 +12728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>672</v>
       </c>
@@ -12743,7 +12751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>674</v>
       </c>
@@ -12766,7 +12774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>676</v>
       </c>
@@ -12789,7 +12797,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>678</v>
       </c>
@@ -12812,7 +12820,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>680</v>
       </c>
@@ -12835,7 +12843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>682</v>
       </c>
@@ -12858,7 +12866,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>684</v>
       </c>
@@ -12881,7 +12889,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>687</v>
       </c>
@@ -12904,7 +12912,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>690</v>
       </c>
@@ -12927,7 +12935,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>692</v>
       </c>
@@ -12950,7 +12958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>694</v>
       </c>
@@ -12973,7 +12981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>696</v>
       </c>
@@ -12996,7 +13004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>698</v>
       </c>
@@ -13019,7 +13027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>700</v>
       </c>
@@ -13042,7 +13050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>703</v>
       </c>
@@ -13065,7 +13073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>705</v>
       </c>
@@ -13088,7 +13096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>707</v>
       </c>
@@ -13111,7 +13119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>709</v>
       </c>
@@ -13134,7 +13142,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>711</v>
       </c>
@@ -13157,7 +13165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>714</v>
       </c>
@@ -13180,7 +13188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>716</v>
       </c>
@@ -13203,7 +13211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>719</v>
       </c>
@@ -13226,7 +13234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>721</v>
       </c>
@@ -13249,7 +13257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>723</v>
       </c>
@@ -13272,7 +13280,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>725</v>
       </c>
@@ -13295,7 +13303,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>727</v>
       </c>
@@ -13318,7 +13326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>730</v>
       </c>
@@ -13341,7 +13349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>733</v>
       </c>
@@ -13364,7 +13372,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>735</v>
       </c>
@@ -13387,7 +13395,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>737</v>
       </c>
@@ -13410,7 +13418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>739</v>
       </c>
@@ -13433,7 +13441,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>741</v>
       </c>
@@ -13456,7 +13464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>744</v>
       </c>
@@ -13479,7 +13487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>747</v>
       </c>
@@ -13502,7 +13510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>749</v>
       </c>
@@ -13525,7 +13533,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>751</v>
       </c>
@@ -13548,7 +13556,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>754</v>
       </c>
@@ -13571,7 +13579,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>756</v>
       </c>
@@ -13594,7 +13602,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>758</v>
       </c>
@@ -13617,7 +13625,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>761</v>
       </c>
@@ -13640,7 +13648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>764</v>
       </c>
@@ -13663,7 +13671,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>766</v>
       </c>
@@ -13686,7 +13694,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>768</v>
       </c>
@@ -13709,7 +13717,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>770</v>
       </c>
@@ -13732,7 +13740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>772</v>
       </c>
@@ -13755,7 +13763,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>774</v>
       </c>
@@ -13778,7 +13786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>776</v>
       </c>
@@ -13801,7 +13809,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>778</v>
       </c>
@@ -13824,7 +13832,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>780</v>
       </c>
@@ -13847,7 +13855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>782</v>
       </c>
@@ -13870,7 +13878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>784</v>
       </c>
@@ -13893,7 +13901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>787</v>
       </c>
@@ -13916,7 +13924,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>790</v>
       </c>
@@ -13939,7 +13947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>792</v>
       </c>
@@ -13962,7 +13970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>794</v>
       </c>
@@ -13985,7 +13993,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>797</v>
       </c>
@@ -14008,7 +14016,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>799</v>
       </c>
@@ -14031,7 +14039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>801</v>
       </c>
@@ -14054,7 +14062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>803</v>
       </c>
@@ -14077,7 +14085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>805</v>
       </c>
@@ -14100,7 +14108,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>807</v>
       </c>
@@ -14123,7 +14131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>809</v>
       </c>
@@ -14146,7 +14154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>811</v>
       </c>
@@ -14169,7 +14177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>814</v>
       </c>
@@ -14192,7 +14200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>817</v>
       </c>
@@ -14215,7 +14223,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>819</v>
       </c>
@@ -14238,7 +14246,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>822</v>
       </c>
@@ -14261,7 +14269,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>824</v>
       </c>
@@ -14284,7 +14292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>826</v>
       </c>
@@ -14307,7 +14315,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>829</v>
       </c>
@@ -14330,7 +14338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>831</v>
       </c>
@@ -14353,7 +14361,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>833</v>
       </c>
@@ -14376,7 +14384,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>835</v>
       </c>
@@ -14399,7 +14407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>837</v>
       </c>
@@ -14422,7 +14430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>839</v>
       </c>
@@ -14445,7 +14453,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>841</v>
       </c>
@@ -14468,7 +14476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>843</v>
       </c>
@@ -14491,7 +14499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>845</v>
       </c>
@@ -14514,7 +14522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>847</v>
       </c>
@@ -14537,7 +14545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>849</v>
       </c>
@@ -14560,7 +14568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>851</v>
       </c>
@@ -14583,7 +14591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>854</v>
       </c>
@@ -14606,7 +14614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>857</v>
       </c>
@@ -14629,7 +14637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>859</v>
       </c>
@@ -14652,7 +14660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>862</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>864</v>
       </c>
@@ -14698,7 +14706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>866</v>
       </c>
@@ -14721,7 +14729,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>868</v>
       </c>
@@ -14744,7 +14752,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>870</v>
       </c>
@@ -14767,7 +14775,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>872</v>
       </c>
@@ -14790,7 +14798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>874</v>
       </c>
@@ -14813,7 +14821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>877</v>
       </c>
@@ -14836,7 +14844,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>879</v>
       </c>
@@ -14859,7 +14867,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>881</v>
       </c>
@@ -14882,7 +14890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>884</v>
       </c>
@@ -14905,7 +14913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>886</v>
       </c>
@@ -14928,7 +14936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>888</v>
       </c>
@@ -14951,7 +14959,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>890</v>
       </c>
@@ -14974,7 +14982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>892</v>
       </c>
@@ -14997,7 +15005,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>894</v>
       </c>
@@ -15020,7 +15028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>896</v>
       </c>
@@ -15043,7 +15051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>898</v>
       </c>
@@ -15066,7 +15074,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>901</v>
       </c>
@@ -15089,7 +15097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>903</v>
       </c>
@@ -15112,7 +15120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>906</v>
       </c>
@@ -15135,7 +15143,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>909</v>
       </c>
@@ -15158,7 +15166,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>911</v>
       </c>
@@ -15181,7 +15189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>913</v>
       </c>
@@ -15204,7 +15212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>915</v>
       </c>
@@ -15227,7 +15235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>917</v>
       </c>
@@ -15250,7 +15258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>919</v>
       </c>
@@ -15273,7 +15281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>921</v>
       </c>
@@ -15296,7 +15304,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>923</v>
       </c>
@@ -15319,7 +15327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>925</v>
       </c>
@@ -15342,7 +15350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>927</v>
       </c>
@@ -15365,7 +15373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>930</v>
       </c>
@@ -15388,7 +15396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>932</v>
       </c>
@@ -15411,7 +15419,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>935</v>
       </c>
@@ -15434,7 +15442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>937</v>
       </c>
@@ -15457,7 +15465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>940</v>
       </c>
@@ -15480,7 +15488,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>942</v>
       </c>
@@ -15503,7 +15511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>944</v>
       </c>
@@ -15526,7 +15534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>947</v>
       </c>
@@ -15549,7 +15557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>950</v>
       </c>
@@ -15572,7 +15580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>952</v>
       </c>
@@ -15595,7 +15603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>954</v>
       </c>
@@ -15618,7 +15626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>956</v>
       </c>
@@ -15641,7 +15649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>958</v>
       </c>
@@ -15664,7 +15672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>961</v>
       </c>
@@ -15687,7 +15695,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>963</v>
       </c>
@@ -15710,7 +15718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>966</v>
       </c>
@@ -15733,7 +15741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>968</v>
       </c>
@@ -15756,7 +15764,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>971</v>
       </c>
@@ -15779,7 +15787,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>973</v>
       </c>
@@ -15802,7 +15810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>975</v>
       </c>
@@ -15825,7 +15833,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>977</v>
       </c>
@@ -15848,7 +15856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>979</v>
       </c>
@@ -15871,7 +15879,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>981</v>
       </c>
@@ -15894,7 +15902,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>983</v>
       </c>
@@ -15917,7 +15925,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>985</v>
       </c>
@@ -15940,7 +15948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>987</v>
       </c>
@@ -15963,7 +15971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>989</v>
       </c>
@@ -15986,7 +15994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>991</v>
       </c>
@@ -16009,7 +16017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>993</v>
       </c>
@@ -16032,7 +16040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>995</v>
       </c>
@@ -16055,7 +16063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>997</v>
       </c>
@@ -16078,7 +16086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>999</v>
       </c>
@@ -16101,7 +16109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1001</v>
       </c>
@@ -16124,7 +16132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1003</v>
       </c>
@@ -16147,7 +16155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1005</v>
       </c>
@@ -16170,7 +16178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1007</v>
       </c>
@@ -16193,7 +16201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1009</v>
       </c>
@@ -16216,7 +16224,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1011</v>
       </c>
@@ -16239,7 +16247,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1013</v>
       </c>
@@ -16262,7 +16270,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>1015</v>
       </c>
@@ -16285,7 +16293,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>1017</v>
       </c>
@@ -16308,7 +16316,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>1019</v>
       </c>
@@ -16331,7 +16339,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>1021</v>
       </c>
@@ -16354,7 +16362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>1024</v>
       </c>
@@ -16377,7 +16385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>1026</v>
       </c>
@@ -16400,7 +16408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>1028</v>
       </c>
@@ -16423,7 +16431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1030</v>
       </c>
@@ -16446,7 +16454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>1032</v>
       </c>
@@ -16469,7 +16477,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>1034</v>
       </c>
@@ -16492,7 +16500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>1036</v>
       </c>
@@ -16515,7 +16523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>1038</v>
       </c>
@@ -16538,7 +16546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>1040</v>
       </c>
@@ -16561,7 +16569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>1042</v>
       </c>
@@ -16584,7 +16592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>1044</v>
       </c>
@@ -16607,7 +16615,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>1046</v>
       </c>
@@ -16630,7 +16638,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>1048</v>
       </c>
@@ -16653,7 +16661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>1050</v>
       </c>
@@ -16676,7 +16684,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>1052</v>
       </c>
@@ -16699,7 +16707,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>1054</v>
       </c>
@@ -16722,7 +16730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>1056</v>
       </c>
@@ -16745,7 +16753,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>1058</v>
       </c>
@@ -16768,7 +16776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1060</v>
       </c>
@@ -16791,7 +16799,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>1062</v>
       </c>
@@ -16814,7 +16822,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>1064</v>
       </c>
@@ -16837,7 +16845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>1066</v>
       </c>
@@ -16860,7 +16868,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>1068</v>
       </c>
@@ -16883,7 +16891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>1070</v>
       </c>
@@ -16906,7 +16914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>1072</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>1074</v>
       </c>
@@ -16952,7 +16960,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>1076</v>
       </c>
@@ -16975,7 +16983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>1078</v>
       </c>
@@ -16998,7 +17006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>1080</v>
       </c>
@@ -17021,7 +17029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>1082</v>
       </c>
@@ -17044,7 +17052,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>1085</v>
       </c>
@@ -17067,7 +17075,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>1087</v>
       </c>
@@ -17090,7 +17098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>1089</v>
       </c>
@@ -17113,7 +17121,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>1091</v>
       </c>
@@ -17136,7 +17144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>1094</v>
       </c>
@@ -17159,7 +17167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>1096</v>
       </c>
@@ -17182,7 +17190,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1098</v>
       </c>
@@ -17205,7 +17213,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>1100</v>
       </c>
@@ -17228,7 +17236,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>1102</v>
       </c>
@@ -17251,7 +17259,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>1105</v>
       </c>
@@ -17274,7 +17282,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>1107</v>
       </c>
@@ -17297,7 +17305,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>1109</v>
       </c>
@@ -17320,7 +17328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>1112</v>
       </c>
@@ -17343,7 +17351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>1114</v>
       </c>
@@ -17366,7 +17374,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>1116</v>
       </c>
@@ -17389,7 +17397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>1118</v>
       </c>
@@ -17412,7 +17420,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>1120</v>
       </c>
@@ -17435,7 +17443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>1122</v>
       </c>
@@ -17458,7 +17466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>1125</v>
       </c>
@@ -17481,7 +17489,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>1127</v>
       </c>
@@ -17504,7 +17512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>1130</v>
       </c>
@@ -17527,7 +17535,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>1132</v>
       </c>
@@ -17550,7 +17558,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>1134</v>
       </c>
@@ -17573,7 +17581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>1136</v>
       </c>
@@ -17596,7 +17604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>1138</v>
       </c>
@@ -17619,7 +17627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>1141</v>
       </c>
@@ -17642,7 +17650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>1143</v>
       </c>
@@ -17665,7 +17673,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>1145</v>
       </c>
@@ -17688,7 +17696,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>1147</v>
       </c>
@@ -17711,7 +17719,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>1150</v>
       </c>
@@ -17734,7 +17742,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>1152</v>
       </c>
@@ -17757,7 +17765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>1154</v>
       </c>
@@ -17780,7 +17788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>1156</v>
       </c>
@@ -17803,7 +17811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>1158</v>
       </c>
@@ -17826,7 +17834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>1160</v>
       </c>
@@ -17849,7 +17857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>1162</v>
       </c>
@@ -17872,7 +17880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>1164</v>
       </c>
@@ -17895,7 +17903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>1166</v>
       </c>
@@ -17918,7 +17926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>1168</v>
       </c>
@@ -17941,7 +17949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>1170</v>
       </c>
@@ -17964,7 +17972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>1173</v>
       </c>
@@ -17987,7 +17995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>1176</v>
       </c>
@@ -18010,7 +18018,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>1178</v>
       </c>
@@ -18033,7 +18041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>1180</v>
       </c>
@@ -18056,7 +18064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>1182</v>
       </c>
@@ -18079,7 +18087,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>1184</v>
       </c>
@@ -18102,7 +18110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>1186</v>
       </c>
@@ -18125,7 +18133,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>1188</v>
       </c>
@@ -18148,7 +18156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>1191</v>
       </c>
@@ -18171,7 +18179,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>1193</v>
       </c>
@@ -18194,7 +18202,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>1195</v>
       </c>
@@ -18217,7 +18225,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>1197</v>
       </c>
@@ -18240,7 +18248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>1199</v>
       </c>
@@ -18263,7 +18271,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>1201</v>
       </c>
@@ -18286,7 +18294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>1203</v>
       </c>
@@ -18309,7 +18317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>1205</v>
       </c>
@@ -18332,7 +18340,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>1207</v>
       </c>
@@ -18355,7 +18363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>1210</v>
       </c>
@@ -18378,7 +18386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>1212</v>
       </c>
@@ -18401,7 +18409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>1214</v>
       </c>
@@ -18424,7 +18432,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>1217</v>
       </c>
@@ -18447,7 +18455,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>1219</v>
       </c>
@@ -18470,7 +18478,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>1221</v>
       </c>
@@ -18493,7 +18501,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>1223</v>
       </c>
@@ -18516,7 +18524,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>1225</v>
       </c>
@@ -18539,7 +18547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>1228</v>
       </c>
@@ -18562,7 +18570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>1230</v>
       </c>
@@ -18585,7 +18593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>1232</v>
       </c>
@@ -18608,7 +18616,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>1234</v>
       </c>
@@ -18631,7 +18639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>1236</v>
       </c>
@@ -18654,7 +18662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>1238</v>
       </c>
@@ -18677,7 +18685,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>1240</v>
       </c>
@@ -18700,7 +18708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>1242</v>
       </c>
@@ -18723,7 +18731,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>1244</v>
       </c>
@@ -18746,7 +18754,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>1246</v>
       </c>
@@ -18769,7 +18777,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>1248</v>
       </c>
@@ -18792,7 +18800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>1251</v>
       </c>
@@ -18815,7 +18823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>1254</v>
       </c>
@@ -18838,7 +18846,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>1256</v>
       </c>
@@ -18861,7 +18869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>1258</v>
       </c>
@@ -18884,7 +18892,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>1260</v>
       </c>
@@ -18907,7 +18915,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>1262</v>
       </c>
@@ -18930,7 +18938,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>1264</v>
       </c>
@@ -18953,7 +18961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>1266</v>
       </c>
@@ -18976,7 +18984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>1268</v>
       </c>
@@ -18999,7 +19007,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>1270</v>
       </c>
@@ -19022,7 +19030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>1272</v>
       </c>
@@ -19045,7 +19053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>1274</v>
       </c>
@@ -19068,7 +19076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>1276</v>
       </c>
@@ -19091,7 +19099,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>1278</v>
       </c>
@@ -19114,7 +19122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>1280</v>
       </c>
@@ -19137,7 +19145,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>1282</v>
       </c>
@@ -19160,7 +19168,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>1284</v>
       </c>
@@ -19183,7 +19191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>1286</v>
       </c>
@@ -19206,7 +19214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>1288</v>
       </c>
@@ -19229,7 +19237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>1290</v>
       </c>
@@ -19252,7 +19260,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>1292</v>
       </c>
@@ -19275,7 +19283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>1294</v>
       </c>
@@ -19298,7 +19306,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>1296</v>
       </c>
@@ -19321,7 +19329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>1298</v>
       </c>
@@ -19344,7 +19352,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>1300</v>
       </c>
@@ -19367,7 +19375,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>1303</v>
       </c>
@@ -19390,7 +19398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>1305</v>
       </c>
@@ -19413,7 +19421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>1308</v>
       </c>
@@ -19436,7 +19444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>1310</v>
       </c>
@@ -19459,7 +19467,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>1312</v>
       </c>
@@ -19482,7 +19490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>1314</v>
       </c>
@@ -19505,7 +19513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>1316</v>
       </c>
@@ -19528,7 +19536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>1318</v>
       </c>
@@ -19551,7 +19559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>1320</v>
       </c>
@@ -19574,7 +19582,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>1322</v>
       </c>
@@ -19597,7 +19605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>1324</v>
       </c>
@@ -19620,7 +19628,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>1326</v>
       </c>
@@ -19643,7 +19651,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>1328</v>
       </c>
@@ -19666,7 +19674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>1330</v>
       </c>
@@ -19689,7 +19697,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>1332</v>
       </c>
@@ -19712,7 +19720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>1334</v>
       </c>
@@ -19735,7 +19743,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>1336</v>
       </c>
@@ -19758,7 +19766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>1338</v>
       </c>
@@ -19781,7 +19789,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>1340</v>
       </c>
@@ -19804,7 +19812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>1342</v>
       </c>
@@ -19827,7 +19835,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>1344</v>
       </c>
@@ -19850,7 +19858,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>1347</v>
       </c>
@@ -19873,7 +19881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>1349</v>
       </c>
@@ -19896,7 +19904,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>1351</v>
       </c>
@@ -19919,7 +19927,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>1353</v>
       </c>
@@ -19942,7 +19950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>1355</v>
       </c>
@@ -19965,7 +19973,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>1357</v>
       </c>
@@ -19988,7 +19996,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>1359</v>
       </c>
@@ -20011,7 +20019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>1361</v>
       </c>
@@ -20034,7 +20042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>1363</v>
       </c>
@@ -20057,7 +20065,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>1365</v>
       </c>
@@ -20080,7 +20088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>1367</v>
       </c>
@@ -20103,7 +20111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>1370</v>
       </c>
@@ -20126,7 +20134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>1372</v>
       </c>
@@ -20149,7 +20157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>1374</v>
       </c>
@@ -20172,7 +20180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>1377</v>
       </c>
@@ -20195,7 +20203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>1379</v>
       </c>
@@ -20218,7 +20226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>1382</v>
       </c>
@@ -20241,7 +20249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>1384</v>
       </c>
@@ -20264,7 +20272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>1386</v>
       </c>
@@ -20287,7 +20295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>1388</v>
       </c>
@@ -20310,7 +20318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>1390</v>
       </c>
@@ -20333,7 +20341,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>1392</v>
       </c>
@@ -20356,7 +20364,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>1394</v>
       </c>
@@ -20379,7 +20387,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>1396</v>
       </c>
@@ -20402,7 +20410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>1398</v>
       </c>
@@ -20425,7 +20433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>1400</v>
       </c>
@@ -20448,7 +20456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>1402</v>
       </c>
@@ -20471,7 +20479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>1405</v>
       </c>
@@ -20494,7 +20502,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>1407</v>
       </c>
@@ -20517,7 +20525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>1409</v>
       </c>
@@ -20540,7 +20548,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>1411</v>
       </c>
@@ -20563,7 +20571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>1414</v>
       </c>
@@ -20586,7 +20594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>1416</v>
       </c>
@@ -20609,7 +20617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>1418</v>
       </c>
@@ -20632,7 +20640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>1420</v>
       </c>
@@ -20655,7 +20663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>1423</v>
       </c>
@@ -20678,7 +20686,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>1425</v>
       </c>
@@ -20701,7 +20709,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>1427</v>
       </c>
@@ -20724,7 +20732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>1430</v>
       </c>
@@ -20747,7 +20755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>1432</v>
       </c>
@@ -20770,7 +20778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>1435</v>
       </c>
@@ -20793,7 +20801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>1437</v>
       </c>
@@ -20816,7 +20824,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1439</v>
       </c>
@@ -20839,7 +20847,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1441</v>
       </c>
@@ -20862,7 +20870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1443</v>
       </c>
@@ -20885,7 +20893,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1445</v>
       </c>
@@ -20908,7 +20916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1447</v>
       </c>
@@ -20931,7 +20939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1449</v>
       </c>
@@ -20954,7 +20962,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1451</v>
       </c>
@@ -20977,7 +20985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1453</v>
       </c>
@@ -21000,7 +21008,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1455</v>
       </c>
@@ -21023,7 +21031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1458</v>
       </c>
@@ -21046,7 +21054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1460</v>
       </c>
@@ -21069,7 +21077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1462</v>
       </c>
@@ -21092,7 +21100,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1464</v>
       </c>
@@ -21115,7 +21123,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1466</v>
       </c>
@@ -21138,7 +21146,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>1468</v>
       </c>
@@ -21161,7 +21169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1471</v>
       </c>
@@ -21184,7 +21192,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1473</v>
       </c>
@@ -21207,7 +21215,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1475</v>
       </c>
@@ -21230,7 +21238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1477</v>
       </c>
@@ -21253,7 +21261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1479</v>
       </c>
@@ -21276,7 +21284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1481</v>
       </c>
@@ -21299,7 +21307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1483</v>
       </c>
@@ -21322,7 +21330,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1485</v>
       </c>
@@ -21345,7 +21353,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1487</v>
       </c>
@@ -21368,7 +21376,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1489</v>
       </c>
@@ -21391,7 +21399,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1491</v>
       </c>
@@ -21414,7 +21422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>1493</v>
       </c>
@@ -21437,7 +21445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1495</v>
       </c>
@@ -21460,7 +21468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>1497</v>
       </c>
@@ -21483,7 +21491,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1499</v>
       </c>
@@ -21506,7 +21514,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1501</v>
       </c>
@@ -21529,7 +21537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1503</v>
       </c>
@@ -21552,7 +21560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>1505</v>
       </c>
@@ -21575,7 +21583,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>1507</v>
       </c>
@@ -21598,7 +21606,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1509</v>
       </c>
@@ -21621,7 +21629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>1511</v>
       </c>
@@ -21644,7 +21652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>1513</v>
       </c>
@@ -21667,7 +21675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>1516</v>
       </c>
@@ -21690,7 +21698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>1518</v>
       </c>
@@ -21713,7 +21721,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>1520</v>
       </c>
@@ -21736,7 +21744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>1522</v>
       </c>
@@ -21759,7 +21767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>1524</v>
       </c>
@@ -21782,7 +21790,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>1526</v>
       </c>
@@ -21805,7 +21813,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>1528</v>
       </c>
@@ -21828,7 +21836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>1530</v>
       </c>
@@ -21851,7 +21859,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>1532</v>
       </c>
@@ -21874,7 +21882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1534</v>
       </c>
@@ -21897,7 +21905,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>1536</v>
       </c>
@@ -21920,7 +21928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1538</v>
       </c>
@@ -21943,7 +21951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>1540</v>
       </c>
@@ -21966,7 +21974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1542</v>
       </c>
@@ -21989,7 +21997,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1544</v>
       </c>
@@ -22012,7 +22020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1546</v>
       </c>
@@ -22035,7 +22043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>1548</v>
       </c>
@@ -22058,7 +22066,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>1550</v>
       </c>
@@ -22081,7 +22089,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>1552</v>
       </c>
@@ -22104,7 +22112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1554</v>
       </c>
@@ -22127,7 +22135,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1556</v>
       </c>
@@ -22150,7 +22158,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1558</v>
       </c>
@@ -22173,7 +22181,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1560</v>
       </c>
@@ -22196,7 +22204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1562</v>
       </c>
@@ -22219,7 +22227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1564</v>
       </c>
@@ -22242,7 +22250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1566</v>
       </c>
@@ -22265,7 +22273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1568</v>
       </c>
@@ -22288,7 +22296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>1570</v>
       </c>
@@ -22311,7 +22319,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1572</v>
       </c>
@@ -22334,7 +22342,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1574</v>
       </c>
@@ -22357,7 +22365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1576</v>
       </c>
@@ -22380,7 +22388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1578</v>
       </c>
@@ -22403,7 +22411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>1580</v>
       </c>
@@ -22426,7 +22434,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>1582</v>
       </c>
@@ -22449,7 +22457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>1584</v>
       </c>
@@ -22472,7 +22480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>1586</v>
       </c>
@@ -22495,7 +22503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>1588</v>
       </c>
@@ -22518,7 +22526,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>1590</v>
       </c>
@@ -22541,7 +22549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>1592</v>
       </c>
@@ -22564,7 +22572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>1594</v>
       </c>
@@ -22587,7 +22595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>1596</v>
       </c>
@@ -22610,7 +22618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>1598</v>
       </c>
@@ -22633,7 +22641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>1601</v>
       </c>
@@ -22656,7 +22664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>1603</v>
       </c>
@@ -22679,7 +22687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>1606</v>
       </c>
@@ -22702,7 +22710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>1609</v>
       </c>
@@ -22725,7 +22733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>1611</v>
       </c>
@@ -22748,7 +22756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>1613</v>
       </c>
@@ -22771,7 +22779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>1615</v>
       </c>
@@ -22794,7 +22802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>1617</v>
       </c>
@@ -22817,7 +22825,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>1619</v>
       </c>
@@ -22840,7 +22848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>1621</v>
       </c>
@@ -22863,7 +22871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>1623</v>
       </c>
@@ -22886,7 +22894,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>1625</v>
       </c>
@@ -22909,7 +22917,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>1627</v>
       </c>
@@ -22932,7 +22940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>1629</v>
       </c>
@@ -22955,7 +22963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>1632</v>
       </c>
@@ -22978,7 +22986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>1634</v>
       </c>
@@ -23001,7 +23009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>1636</v>
       </c>
@@ -23024,7 +23032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>1638</v>
       </c>
@@ -23047,7 +23055,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>1640</v>
       </c>
@@ -23070,7 +23078,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>1642</v>
       </c>
@@ -23093,7 +23101,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>1644</v>
       </c>
@@ -23116,7 +23124,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>1646</v>
       </c>
@@ -23139,7 +23147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>1648</v>
       </c>
@@ -23162,7 +23170,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>1650</v>
       </c>
@@ -23185,7 +23193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>1652</v>
       </c>
@@ -23208,7 +23216,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>1654</v>
       </c>
@@ -23231,7 +23239,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>1656</v>
       </c>
@@ -23254,7 +23262,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>1658</v>
       </c>
@@ -23277,7 +23285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>1660</v>
       </c>
@@ -23300,7 +23308,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>1662</v>
       </c>
@@ -23323,7 +23331,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>1664</v>
       </c>
@@ -23346,7 +23354,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>1666</v>
       </c>
@@ -23369,7 +23377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>1668</v>
       </c>
@@ -23392,7 +23400,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="703" spans="1:7">
+    <row r="703" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>1670</v>
       </c>
@@ -23415,7 +23423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="704" spans="1:7">
+    <row r="704" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>1672</v>
       </c>
@@ -23438,7 +23446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>1674</v>
       </c>
@@ -23461,7 +23469,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>1676</v>
       </c>
@@ -23484,7 +23492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>1678</v>
       </c>
@@ -23507,7 +23515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>1680</v>
       </c>
@@ -23530,7 +23538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>1682</v>
       </c>
@@ -23553,7 +23561,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>1684</v>
       </c>
@@ -23576,7 +23584,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>1686</v>
       </c>
@@ -23599,7 +23607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>1688</v>
       </c>
@@ -23622,7 +23630,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>1690</v>
       </c>
@@ -23645,7 +23653,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>1692</v>
       </c>
@@ -23668,7 +23676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>1694</v>
       </c>
@@ -23691,7 +23699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>1697</v>
       </c>
@@ -23714,7 +23722,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>1699</v>
       </c>
@@ -23737,7 +23745,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>1701</v>
       </c>
@@ -23760,7 +23768,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>1703</v>
       </c>
@@ -23783,7 +23791,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>1705</v>
       </c>
@@ -23806,7 +23814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="721" spans="1:7">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>1707</v>
       </c>
@@ -23829,7 +23837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="722" spans="1:7">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>1709</v>
       </c>
@@ -23852,7 +23860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="723" spans="1:7">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>1711</v>
       </c>
@@ -23875,7 +23883,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="724" spans="1:7">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>1713</v>
       </c>
@@ -23898,7 +23906,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="725" spans="1:7">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>1715</v>
       </c>
@@ -23921,7 +23929,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="726" spans="1:7">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>1717</v>
       </c>
@@ -23944,7 +23952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="727" spans="1:7">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>1719</v>
       </c>
@@ -23967,7 +23975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:7">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>1721</v>
       </c>
@@ -23990,7 +23998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="729" spans="1:7">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>1723</v>
       </c>
@@ -24013,7 +24021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="730" spans="1:7">
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>1725</v>
       </c>
@@ -24036,7 +24044,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="731" spans="1:7">
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>1727</v>
       </c>
@@ -24059,7 +24067,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="732" spans="1:7">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>1729</v>
       </c>
@@ -24082,7 +24090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="733" spans="1:7">
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>1731</v>
       </c>
@@ -24105,7 +24113,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="734" spans="1:7">
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>1733</v>
       </c>
@@ -24128,7 +24136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="735" spans="1:7">
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>1735</v>
       </c>
@@ -24151,7 +24159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="736" spans="1:7">
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>1737</v>
       </c>
@@ -24174,7 +24182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:7">
+    <row r="737" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>1739</v>
       </c>
@@ -24197,7 +24205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="738" spans="1:7">
+    <row r="738" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>1741</v>
       </c>
@@ -24220,7 +24228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="739" spans="1:7">
+    <row r="739" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>1743</v>
       </c>
@@ -24243,7 +24251,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="740" spans="1:7">
+    <row r="740" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>1745</v>
       </c>
@@ -24266,7 +24274,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="741" spans="1:7">
+    <row r="741" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>1747</v>
       </c>
@@ -24289,7 +24297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="742" spans="1:7">
+    <row r="742" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>1749</v>
       </c>
@@ -24312,7 +24320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="743" spans="1:7">
+    <row r="743" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>1751</v>
       </c>
@@ -24335,7 +24343,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="744" spans="1:7">
+    <row r="744" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>1753</v>
       </c>
@@ -24358,7 +24366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="745" spans="1:7">
+    <row r="745" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>1755</v>
       </c>
@@ -24381,7 +24389,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="746" spans="1:7">
+    <row r="746" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>1757</v>
       </c>
@@ -24404,7 +24412,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="747" spans="1:7">
+    <row r="747" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>1759</v>
       </c>
@@ -24427,7 +24435,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="748" spans="1:7">
+    <row r="748" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>1761</v>
       </c>
@@ -24450,7 +24458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="749" spans="1:7">
+    <row r="749" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>1763</v>
       </c>
@@ -24473,7 +24481,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="750" spans="1:7">
+    <row r="750" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>1765</v>
       </c>
@@ -24496,7 +24504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="751" spans="1:7">
+    <row r="751" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>1767</v>
       </c>
@@ -24519,7 +24527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:7">
+    <row r="752" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>1769</v>
       </c>
@@ -24542,7 +24550,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="753" spans="1:7">
+    <row r="753" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>1771</v>
       </c>
@@ -24565,7 +24573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="754" spans="1:7">
+    <row r="754" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>1773</v>
       </c>
@@ -24588,7 +24596,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="755" spans="1:7">
+    <row r="755" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>1775</v>
       </c>
@@ -24611,7 +24619,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="756" spans="1:7">
+    <row r="756" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>1777</v>
       </c>
@@ -24634,7 +24642,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="757" spans="1:7">
+    <row r="757" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>1779</v>
       </c>
@@ -24657,7 +24665,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="758" spans="1:7">
+    <row r="758" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>1781</v>
       </c>
@@ -24680,7 +24688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="759" spans="1:7">
+    <row r="759" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>1783</v>
       </c>
@@ -24703,7 +24711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="760" spans="1:7">
+    <row r="760" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>1785</v>
       </c>
@@ -24726,7 +24734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="761" spans="1:7">
+    <row r="761" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>1787</v>
       </c>
@@ -24749,7 +24757,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="762" spans="1:7">
+    <row r="762" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>1790</v>
       </c>
@@ -24772,7 +24780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="763" spans="1:7">
+    <row r="763" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>1792</v>
       </c>
@@ -24795,7 +24803,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="764" spans="1:7">
+    <row r="764" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>1795</v>
       </c>
@@ -24818,7 +24826,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="765" spans="1:7">
+    <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>1797</v>
       </c>
@@ -24841,7 +24849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="766" spans="1:7">
+    <row r="766" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>1799</v>
       </c>
@@ -24864,7 +24872,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="767" spans="1:7">
+    <row r="767" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>1801</v>
       </c>
@@ -24887,7 +24895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="768" spans="1:7">
+    <row r="768" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>1803</v>
       </c>
@@ -24910,7 +24918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="769" spans="1:7">
+    <row r="769" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>1805</v>
       </c>
@@ -24933,7 +24941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="770" spans="1:7">
+    <row r="770" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>1807</v>
       </c>
@@ -24956,7 +24964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="771" spans="1:7">
+    <row r="771" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>1809</v>
       </c>
@@ -24979,7 +24987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="772" spans="1:7">
+    <row r="772" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>1811</v>
       </c>
@@ -25002,7 +25010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="773" spans="1:7">
+    <row r="773" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>1813</v>
       </c>
@@ -25025,7 +25033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="774" spans="1:7">
+    <row r="774" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>1815</v>
       </c>
@@ -25048,7 +25056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="775" spans="1:7">
+    <row r="775" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>1817</v>
       </c>
@@ -25071,7 +25079,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="776" spans="1:7">
+    <row r="776" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>1819</v>
       </c>
@@ -25094,7 +25102,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="777" spans="1:7">
+    <row r="777" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>1821</v>
       </c>
@@ -25117,7 +25125,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="778" spans="1:7">
+    <row r="778" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>1823</v>
       </c>
@@ -25140,7 +25148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="779" spans="1:7">
+    <row r="779" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>1825</v>
       </c>
@@ -25163,7 +25171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:7">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>1827</v>
       </c>
@@ -25186,7 +25194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="781" spans="1:7">
+    <row r="781" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>1829</v>
       </c>
@@ -25209,7 +25217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:7">
+    <row r="782" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>1831</v>
       </c>
@@ -25232,7 +25240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="783" spans="1:7">
+    <row r="783" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>1833</v>
       </c>
@@ -25255,7 +25263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="784" spans="1:7">
+    <row r="784" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>1835</v>
       </c>
@@ -25278,7 +25286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="785" spans="1:7">
+    <row r="785" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>1837</v>
       </c>
@@ -25301,7 +25309,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="786" spans="1:7">
+    <row r="786" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>1839</v>
       </c>
@@ -25324,7 +25332,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="787" spans="1:7">
+    <row r="787" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>1841</v>
       </c>
@@ -25347,7 +25355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="788" spans="1:7">
+    <row r="788" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>1843</v>
       </c>
@@ -25370,7 +25378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="789" spans="1:7">
+    <row r="789" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>1846</v>
       </c>
@@ -25393,7 +25401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="790" spans="1:7">
+    <row r="790" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>1848</v>
       </c>
@@ -25416,7 +25424,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="791" spans="1:7">
+    <row r="791" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>1850</v>
       </c>
@@ -25439,7 +25447,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="792" spans="1:7">
+    <row r="792" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>1852</v>
       </c>
@@ -25462,7 +25470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="793" spans="1:7">
+    <row r="793" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>1854</v>
       </c>
@@ -25485,7 +25493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="794" spans="1:7">
+    <row r="794" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>1856</v>
       </c>
@@ -25508,7 +25516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="795" spans="1:7">
+    <row r="795" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>1858</v>
       </c>
@@ -25531,7 +25539,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="796" spans="1:7">
+    <row r="796" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>1860</v>
       </c>
@@ -25554,7 +25562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:7">
+    <row r="797" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>1862</v>
       </c>
@@ -25577,7 +25585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="798" spans="1:7">
+    <row r="798" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
         <v>1864</v>
       </c>
@@ -25600,7 +25608,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="799" spans="1:7">
+    <row r="799" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
         <v>1866</v>
       </c>
@@ -25623,7 +25631,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="800" spans="1:7">
+    <row r="800" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
         <v>1868</v>
       </c>
@@ -25646,7 +25654,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="801" spans="1:7">
+    <row r="801" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
         <v>1870</v>
       </c>
@@ -25669,7 +25677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="802" spans="1:7">
+    <row r="802" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
         <v>1872</v>
       </c>
@@ -25692,7 +25700,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="803" spans="1:7">
+    <row r="803" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
         <v>1874</v>
       </c>
@@ -25715,7 +25723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="804" spans="1:7">
+    <row r="804" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
         <v>1876</v>
       </c>
@@ -25738,7 +25746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="805" spans="1:7">
+    <row r="805" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
         <v>1878</v>
       </c>
@@ -25761,7 +25769,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="806" spans="1:7">
+    <row r="806" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
         <v>1880</v>
       </c>
@@ -25784,7 +25792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="807" spans="1:7">
+    <row r="807" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
         <v>1882</v>
       </c>
@@ -25807,7 +25815,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="808" spans="1:7">
+    <row r="808" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
         <v>1884</v>
       </c>
@@ -25830,7 +25838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="809" spans="1:7">
+    <row r="809" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
         <v>1886</v>
       </c>
@@ -25853,7 +25861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="810" spans="1:7">
+    <row r="810" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
         <v>1888</v>
       </c>
@@ -25876,7 +25884,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="811" spans="1:7">
+    <row r="811" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
         <v>1891</v>
       </c>
@@ -25899,7 +25907,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="812" spans="1:7">
+    <row r="812" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
         <v>1893</v>
       </c>
@@ -25922,7 +25930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="813" spans="1:7">
+    <row r="813" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
         <v>1895</v>
       </c>
@@ -25945,7 +25953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="814" spans="1:7">
+    <row r="814" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
         <v>1897</v>
       </c>
@@ -25968,7 +25976,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="815" spans="1:7">
+    <row r="815" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
         <v>1899</v>
       </c>
@@ -25991,7 +25999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="816" spans="1:7">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
         <v>1901</v>
       </c>
@@ -26014,7 +26022,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="817" spans="1:7">
+    <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
         <v>1903</v>
       </c>
@@ -26037,7 +26045,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="818" spans="1:7">
+    <row r="818" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
         <v>1905</v>
       </c>
@@ -26060,7 +26068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="819" spans="1:7">
+    <row r="819" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
         <v>1907</v>
       </c>
@@ -26083,7 +26091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="820" spans="1:7">
+    <row r="820" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
         <v>1909</v>
       </c>
@@ -26106,7 +26114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="821" spans="1:7">
+    <row r="821" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
         <v>1911</v>
       </c>
@@ -26129,7 +26137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="822" spans="1:7">
+    <row r="822" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
         <v>1913</v>
       </c>
@@ -26152,7 +26160,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="823" spans="1:7">
+    <row r="823" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
         <v>1915</v>
       </c>
@@ -26175,7 +26183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="824" spans="1:7">
+    <row r="824" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
         <v>1917</v>
       </c>
@@ -26198,7 +26206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="825" spans="1:7">
+    <row r="825" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
         <v>1919</v>
       </c>
@@ -26221,7 +26229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="826" spans="1:7">
+    <row r="826" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
         <v>1921</v>
       </c>
@@ -26244,7 +26252,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="827" spans="1:7">
+    <row r="827" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
         <v>1923</v>
       </c>
@@ -26267,7 +26275,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="828" spans="1:7">
+    <row r="828" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
         <v>1925</v>
       </c>
@@ -26290,7 +26298,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="829" spans="1:7">
+    <row r="829" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
         <v>1927</v>
       </c>
@@ -26313,7 +26321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="830" spans="1:7">
+    <row r="830" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
         <v>1929</v>
       </c>
@@ -26336,7 +26344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="831" spans="1:7">
+    <row r="831" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
         <v>1931</v>
       </c>
@@ -26359,7 +26367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="832" spans="1:7">
+    <row r="832" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
         <v>1933</v>
       </c>
@@ -26382,7 +26390,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="833" spans="1:7">
+    <row r="833" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
         <v>1935</v>
       </c>
@@ -26405,7 +26413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="834" spans="1:7">
+    <row r="834" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
         <v>1937</v>
       </c>
@@ -26428,7 +26436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="835" spans="1:7">
+    <row r="835" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
         <v>1939</v>
       </c>
@@ -26451,7 +26459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="836" spans="1:7">
+    <row r="836" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
         <v>1941</v>
       </c>
@@ -26474,7 +26482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="837" spans="1:7">
+    <row r="837" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
         <v>1943</v>
       </c>
@@ -26497,7 +26505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="838" spans="1:7">
+    <row r="838" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
         <v>1945</v>
       </c>
@@ -26520,7 +26528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="839" spans="1:7">
+    <row r="839" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
         <v>1947</v>
       </c>
@@ -26543,7 +26551,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="840" spans="1:7">
+    <row r="840" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
         <v>1949</v>
       </c>
@@ -26566,7 +26574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="841" spans="1:7">
+    <row r="841" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
         <v>1951</v>
       </c>
@@ -26589,7 +26597,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="842" spans="1:7">
+    <row r="842" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
         <v>1953</v>
       </c>
@@ -26612,7 +26620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="843" spans="1:7">
+    <row r="843" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
         <v>1955</v>
       </c>
@@ -26635,7 +26643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="844" spans="1:7">
+    <row r="844" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
         <v>1957</v>
       </c>
@@ -26658,7 +26666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="845" spans="1:7">
+    <row r="845" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>1959</v>
       </c>
@@ -26681,7 +26689,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="846" spans="1:7">
+    <row r="846" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>1961</v>
       </c>
@@ -26704,7 +26712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="847" spans="1:7">
+    <row r="847" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>1963</v>
       </c>
@@ -26727,7 +26735,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="848" spans="1:7">
+    <row r="848" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>1965</v>
       </c>
@@ -26750,7 +26758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="849" spans="1:7">
+    <row r="849" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>1967</v>
       </c>
@@ -26773,7 +26781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="850" spans="1:7">
+    <row r="850" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>1969</v>
       </c>
@@ -26796,7 +26804,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="851" spans="1:7">
+    <row r="851" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>1971</v>
       </c>
@@ -26819,7 +26827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="852" spans="1:7">
+    <row r="852" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>1973</v>
       </c>
@@ -26842,7 +26850,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="853" spans="1:7">
+    <row r="853" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>1975</v>
       </c>
@@ -26865,7 +26873,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="854" spans="1:7">
+    <row r="854" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>1977</v>
       </c>
@@ -26888,7 +26896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="855" spans="1:7">
+    <row r="855" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>1979</v>
       </c>
@@ -26911,7 +26919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="856" spans="1:7">
+    <row r="856" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>1981</v>
       </c>
@@ -26934,7 +26942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="857" spans="1:7">
+    <row r="857" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>1983</v>
       </c>
@@ -26957,7 +26965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="858" spans="1:7">
+    <row r="858" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>1985</v>
       </c>
@@ -26980,7 +26988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="859" spans="1:7">
+    <row r="859" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>1987</v>
       </c>
@@ -27003,7 +27011,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="860" spans="1:7">
+    <row r="860" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>1989</v>
       </c>
@@ -27026,7 +27034,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="861" spans="1:7">
+    <row r="861" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>1991</v>
       </c>
@@ -27049,7 +27057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="862" spans="1:7">
+    <row r="862" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>1993</v>
       </c>
@@ -27072,7 +27080,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="863" spans="1:7">
+    <row r="863" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>1995</v>
       </c>
@@ -27095,7 +27103,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="864" spans="1:7">
+    <row r="864" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>1997</v>
       </c>
@@ -27118,7 +27126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="865" spans="1:7">
+    <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>1999</v>
       </c>
@@ -27141,7 +27149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="866" spans="1:7">
+    <row r="866" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>2001</v>
       </c>
@@ -27164,7 +27172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="867" spans="1:7">
+    <row r="867" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>2003</v>
       </c>
@@ -27187,7 +27195,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="868" spans="1:7">
+    <row r="868" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>2005</v>
       </c>
@@ -27210,7 +27218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="869" spans="1:7">
+    <row r="869" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>2007</v>
       </c>
@@ -27233,7 +27241,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="870" spans="1:7">
+    <row r="870" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>2009</v>
       </c>
@@ -27256,7 +27264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="871" spans="1:7">
+    <row r="871" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>2011</v>
       </c>
@@ -27279,7 +27287,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="872" spans="1:7">
+    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>2013</v>
       </c>
@@ -27302,7 +27310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="873" spans="1:7">
+    <row r="873" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>2015</v>
       </c>
@@ -27325,7 +27333,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="874" spans="1:7">
+    <row r="874" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>2017</v>
       </c>
@@ -27348,7 +27356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="875" spans="1:7">
+    <row r="875" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>2019</v>
       </c>
@@ -27371,7 +27379,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="876" spans="1:7">
+    <row r="876" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>2021</v>
       </c>
@@ -27394,7 +27402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="877" spans="1:7">
+    <row r="877" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>2023</v>
       </c>
@@ -27417,7 +27425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="878" spans="1:7">
+    <row r="878" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>2025</v>
       </c>
@@ -27440,7 +27448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="879" spans="1:7">
+    <row r="879" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>2027</v>
       </c>
@@ -27463,7 +27471,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="880" spans="1:7">
+    <row r="880" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>2029</v>
       </c>
@@ -27486,7 +27494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="881" spans="1:7">
+    <row r="881" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>2031</v>
       </c>
@@ -27509,7 +27517,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="882" spans="1:7">
+    <row r="882" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>2033</v>
       </c>
@@ -27532,7 +27540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="883" spans="1:7">
+    <row r="883" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>2035</v>
       </c>
@@ -27555,7 +27563,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="884" spans="1:7">
+    <row r="884" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>2037</v>
       </c>
@@ -27578,7 +27586,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="885" spans="1:7">
+    <row r="885" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>2039</v>
       </c>
@@ -27601,7 +27609,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="886" spans="1:7">
+    <row r="886" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>2041</v>
       </c>
@@ -27624,7 +27632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="887" spans="1:7">
+    <row r="887" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>2043</v>
       </c>
@@ -27647,7 +27655,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="888" spans="1:7">
+    <row r="888" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>2045</v>
       </c>
@@ -27670,7 +27678,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="889" spans="1:7">
+    <row r="889" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>2047</v>
       </c>
@@ -27693,7 +27701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="890" spans="1:7">
+    <row r="890" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>2049</v>
       </c>
@@ -27716,7 +27724,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="891" spans="1:7">
+    <row r="891" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>2051</v>
       </c>
@@ -27739,7 +27747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="892" spans="1:7">
+    <row r="892" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>2054</v>
       </c>
@@ -27762,7 +27770,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="893" spans="1:7">
+    <row r="893" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>2056</v>
       </c>
@@ -27785,7 +27793,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="894" spans="1:7">
+    <row r="894" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
         <v>2058</v>
       </c>
@@ -27808,7 +27816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="895" spans="1:7">
+    <row r="895" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
         <v>2060</v>
       </c>
@@ -27831,7 +27839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="896" spans="1:7">
+    <row r="896" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
         <v>2062</v>
       </c>
@@ -27854,7 +27862,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="897" spans="1:7">
+    <row r="897" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
         <v>2064</v>
       </c>
@@ -27877,7 +27885,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="898" spans="1:7">
+    <row r="898" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
         <v>2066</v>
       </c>
@@ -27900,7 +27908,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="899" spans="1:7">
+    <row r="899" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
         <v>2068</v>
       </c>
@@ -27923,7 +27931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="900" spans="1:7">
+    <row r="900" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
         <v>2070</v>
       </c>
@@ -27946,7 +27954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="901" spans="1:7">
+    <row r="901" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
         <v>2072</v>
       </c>
@@ -27969,7 +27977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="902" spans="1:7">
+    <row r="902" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
         <v>2074</v>
       </c>
@@ -27992,7 +28000,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="903" spans="1:7">
+    <row r="903" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
         <v>2076</v>
       </c>
@@ -28015,7 +28023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="904" spans="1:7">
+    <row r="904" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
         <v>2078</v>
       </c>
@@ -28038,7 +28046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="905" spans="1:7">
+    <row r="905" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
         <v>2080</v>
       </c>
@@ -28061,7 +28069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="906" spans="1:7">
+    <row r="906" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
         <v>2082</v>
       </c>
@@ -28084,7 +28092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="907" spans="1:7">
+    <row r="907" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
         <v>2085</v>
       </c>
@@ -28107,7 +28115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="908" spans="1:7">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
         <v>2087</v>
       </c>
@@ -28130,7 +28138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="909" spans="1:7">
+    <row r="909" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
         <v>2089</v>
       </c>
@@ -28153,7 +28161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="910" spans="1:7">
+    <row r="910" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
         <v>2091</v>
       </c>
@@ -28176,7 +28184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="911" spans="1:7">
+    <row r="911" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
         <v>2093</v>
       </c>
@@ -28199,7 +28207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="912" spans="1:7">
+    <row r="912" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
         <v>2095</v>
       </c>
@@ -28222,7 +28230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="913" spans="1:7">
+    <row r="913" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
         <v>2097</v>
       </c>
@@ -28245,7 +28253,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="914" spans="1:7">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
         <v>2099</v>
       </c>
@@ -28268,7 +28276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="915" spans="1:7">
+    <row r="915" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
         <v>2101</v>
       </c>
@@ -28291,7 +28299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="916" spans="1:7">
+    <row r="916" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
         <v>2103</v>
       </c>
@@ -28314,7 +28322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="917" spans="1:7">
+    <row r="917" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
         <v>2105</v>
       </c>
@@ -28337,7 +28345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="918" spans="1:7">
+    <row r="918" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
         <v>2107</v>
       </c>
@@ -28360,7 +28368,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="919" spans="1:7">
+    <row r="919" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
         <v>2109</v>
       </c>
@@ -28383,7 +28391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="920" spans="1:7">
+    <row r="920" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
         <v>2111</v>
       </c>
@@ -28406,7 +28414,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="921" spans="1:7">
+    <row r="921" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
         <v>2113</v>
       </c>
@@ -28429,7 +28437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="922" spans="1:7">
+    <row r="922" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
         <v>2115</v>
       </c>
@@ -28452,7 +28460,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="923" spans="1:7">
+    <row r="923" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
         <v>2117</v>
       </c>
@@ -28475,7 +28483,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="924" spans="1:7">
+    <row r="924" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
         <v>2119</v>
       </c>
@@ -28498,7 +28506,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="925" spans="1:7">
+    <row r="925" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
         <v>2121</v>
       </c>
@@ -28521,7 +28529,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="926" spans="1:7">
+    <row r="926" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
         <v>2123</v>
       </c>
@@ -28544,7 +28552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="927" spans="1:7">
+    <row r="927" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
         <v>2125</v>
       </c>
@@ -28567,7 +28575,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="928" spans="1:7">
+    <row r="928" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
         <v>2127</v>
       </c>
@@ -28590,7 +28598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="929" spans="1:7">
+    <row r="929" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
         <v>2129</v>
       </c>
@@ -28613,7 +28621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="930" spans="1:7">
+    <row r="930" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
         <v>2131</v>
       </c>
@@ -28636,7 +28644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="931" spans="1:7">
+    <row r="931" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
         <v>2133</v>
       </c>
@@ -28659,7 +28667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="932" spans="1:7">
+    <row r="932" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
         <v>2135</v>
       </c>
@@ -28682,7 +28690,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="933" spans="1:7">
+    <row r="933" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
         <v>2138</v>
       </c>
@@ -28705,7 +28713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="934" spans="1:7">
+    <row r="934" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
         <v>2140</v>
       </c>
@@ -28728,7 +28736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="935" spans="1:7">
+    <row r="935" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
         <v>2142</v>
       </c>
@@ -28751,7 +28759,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="936" spans="1:7">
+    <row r="936" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
         <v>2144</v>
       </c>
@@ -28774,7 +28782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="937" spans="1:7">
+    <row r="937" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
         <v>2146</v>
       </c>
@@ -28797,7 +28805,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="938" spans="1:7">
+    <row r="938" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
         <v>2148</v>
       </c>
@@ -28820,7 +28828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="939" spans="1:7">
+    <row r="939" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
         <v>2150</v>
       </c>
@@ -28843,7 +28851,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="940" spans="1:7">
+    <row r="940" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
         <v>2152</v>
       </c>
@@ -28866,7 +28874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="941" spans="1:7">
+    <row r="941" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
         <v>2154</v>
       </c>
@@ -28889,7 +28897,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="942" spans="1:7">
+    <row r="942" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
         <v>2156</v>
       </c>
@@ -28912,7 +28920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="943" spans="1:7">
+    <row r="943" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
         <v>2158</v>
       </c>
@@ -28935,7 +28943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="944" spans="1:7">
+    <row r="944" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
         <v>2160</v>
       </c>
@@ -28958,7 +28966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="945" spans="1:7">
+    <row r="945" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
         <v>2162</v>
       </c>
@@ -28981,7 +28989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="946" spans="1:7">
+    <row r="946" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>2164</v>
       </c>
@@ -29004,7 +29012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="947" spans="1:7">
+    <row r="947" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>2166</v>
       </c>
@@ -29027,7 +29035,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="948" spans="1:7">
+    <row r="948" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>2168</v>
       </c>
@@ -29050,7 +29058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="949" spans="1:7">
+    <row r="949" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>2170</v>
       </c>
@@ -29073,7 +29081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="950" spans="1:7">
+    <row r="950" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>2172</v>
       </c>
@@ -29096,7 +29104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="951" spans="1:7">
+    <row r="951" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>2174</v>
       </c>
@@ -29119,7 +29127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="952" spans="1:7">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>2176</v>
       </c>
@@ -29142,7 +29150,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="953" spans="1:7">
+    <row r="953" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>2178</v>
       </c>
@@ -29165,7 +29173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="954" spans="1:7">
+    <row r="954" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>2180</v>
       </c>
@@ -29188,7 +29196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="955" spans="1:7">
+    <row r="955" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>2182</v>
       </c>
@@ -29211,7 +29219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="956" spans="1:7">
+    <row r="956" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>2184</v>
       </c>
@@ -29234,7 +29242,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="957" spans="1:7">
+    <row r="957" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>2186</v>
       </c>
@@ -29257,7 +29265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="958" spans="1:7">
+    <row r="958" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>2188</v>
       </c>
@@ -29280,7 +29288,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="959" spans="1:7">
+    <row r="959" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>2190</v>
       </c>
@@ -29303,7 +29311,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="960" spans="1:7">
+    <row r="960" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>2192</v>
       </c>
@@ -29326,7 +29334,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="961" spans="1:7">
+    <row r="961" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>2194</v>
       </c>
@@ -29349,7 +29357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="962" spans="1:7">
+    <row r="962" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>2196</v>
       </c>
@@ -29372,7 +29380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="963" spans="1:7">
+    <row r="963" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>2198</v>
       </c>
@@ -29395,7 +29403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="964" spans="1:7">
+    <row r="964" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>2200</v>
       </c>
@@ -29418,7 +29426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="965" spans="1:7">
+    <row r="965" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>2202</v>
       </c>
@@ -29441,7 +29449,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="966" spans="1:7">
+    <row r="966" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>2204</v>
       </c>
@@ -29464,7 +29472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="967" spans="1:7">
+    <row r="967" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>2206</v>
       </c>
@@ -29487,7 +29495,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="968" spans="1:7">
+    <row r="968" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
         <v>2208</v>
       </c>
@@ -29510,7 +29518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="969" spans="1:7">
+    <row r="969" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
         <v>2210</v>
       </c>
@@ -29533,7 +29541,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="970" spans="1:7">
+    <row r="970" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
         <v>2212</v>
       </c>
@@ -29556,7 +29564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="971" spans="1:7">
+    <row r="971" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
         <v>2214</v>
       </c>
@@ -29579,7 +29587,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="972" spans="1:7">
+    <row r="972" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
         <v>2216</v>
       </c>
@@ -29602,7 +29610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="973" spans="1:7">
+    <row r="973" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
         <v>2218</v>
       </c>
@@ -29625,7 +29633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="974" spans="1:7">
+    <row r="974" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
         <v>2220</v>
       </c>
@@ -29648,7 +29656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="975" spans="1:7">
+    <row r="975" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
         <v>2222</v>
       </c>
@@ -29671,7 +29679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="976" spans="1:7">
+    <row r="976" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
         <v>2224</v>
       </c>
@@ -29694,7 +29702,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="977" spans="1:7">
+    <row r="977" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
         <v>2226</v>
       </c>
@@ -29717,7 +29725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="978" spans="1:7">
+    <row r="978" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
         <v>2228</v>
       </c>
@@ -29740,7 +29748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="979" spans="1:7">
+    <row r="979" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
         <v>2230</v>
       </c>
@@ -29763,7 +29771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="980" spans="1:7">
+    <row r="980" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
         <v>2232</v>
       </c>
@@ -29786,7 +29794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="981" spans="1:7">
+    <row r="981" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
         <v>2234</v>
       </c>
@@ -29809,7 +29817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="982" spans="1:7">
+    <row r="982" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
         <v>2237</v>
       </c>
@@ -29832,7 +29840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="983" spans="1:7">
+    <row r="983" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
         <v>2239</v>
       </c>
@@ -29855,7 +29863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="984" spans="1:7">
+    <row r="984" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
         <v>2241</v>
       </c>
@@ -29878,7 +29886,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="985" spans="1:7">
+    <row r="985" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
         <v>2243</v>
       </c>
@@ -29901,7 +29909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="986" spans="1:7">
+    <row r="986" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
         <v>2245</v>
       </c>
@@ -29924,7 +29932,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="987" spans="1:7">
+    <row r="987" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
         <v>2247</v>
       </c>
@@ -29947,7 +29955,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="988" spans="1:7">
+    <row r="988" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
         <v>2249</v>
       </c>
@@ -29970,7 +29978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="989" spans="1:7">
+    <row r="989" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
         <v>2251</v>
       </c>
@@ -29993,7 +30001,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="990" spans="1:7">
+    <row r="990" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
         <v>2253</v>
       </c>
@@ -30016,7 +30024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="991" spans="1:7">
+    <row r="991" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
         <v>2255</v>
       </c>
@@ -30039,7 +30047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="992" spans="1:7">
+    <row r="992" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
         <v>2257</v>
       </c>
@@ -30062,7 +30070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="993" spans="1:7">
+    <row r="993" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
         <v>2259</v>
       </c>
@@ -30085,7 +30093,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="994" spans="1:7">
+    <row r="994" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
         <v>2261</v>
       </c>
@@ -30108,7 +30116,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="995" spans="1:7">
+    <row r="995" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
         <v>2263</v>
       </c>
@@ -30131,7 +30139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="996" spans="1:7">
+    <row r="996" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
         <v>2265</v>
       </c>
@@ -30154,7 +30162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="997" spans="1:7">
+    <row r="997" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
         <v>2267</v>
       </c>
@@ -30177,7 +30185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="998" spans="1:7">
+    <row r="998" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
         <v>2269</v>
       </c>
@@ -30200,7 +30208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="999" spans="1:7">
+    <row r="999" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
         <v>2271</v>
       </c>
@@ -30223,7 +30231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1000" spans="1:7">
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
         <v>2273</v>
       </c>
@@ -30246,7 +30254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1001" spans="1:7">
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
         <v>2275</v>
       </c>
@@ -30266,6 +30274,52 @@
         <v>77</v>
       </c>
       <c r="G1001" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>2276</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>934</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1003" t="s">
         <v>61</v>
       </c>
     </row>
@@ -30278,6 +30332,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="62728ae5-e4b5-423f-b7b9-6c15445f3053" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="50c12593-1f60-4c78-ae66-466ac7ac4eb3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C234580E20780439573473195D85E74" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5738ffb14dba12dcbefe51201a040f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="50c12593-1f60-4c78-ae66-466ac7ac4eb3" xmlns:ns3="62728ae5-e4b5-423f-b7b9-6c15445f3053" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="258b4ce249c92662da5e46ce8b1c0369" ns2:_="" ns3:_="">
     <xsd:import namespace="50c12593-1f60-4c78-ae66-466ac7ac4eb3"/>
@@ -30472,34 +30546,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="62728ae5-e4b5-423f-b7b9-6c15445f3053" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="50c12593-1f60-4c78-ae66-466ac7ac4eb3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399D58C-9F26-4A47-A239-C605140E9014}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FB80CA-AC9E-47AA-A128-0730B1DC41B5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C090ACB3-9ADD-4CFA-BE34-F0B17D41772F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C090ACB3-9ADD-4CFA-BE34-F0B17D41772F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="62728ae5-e4b5-423f-b7b9-6c15445f3053"/>
+    <ds:schemaRef ds:uri="50c12593-1f60-4c78-ae66-466ac7ac4eb3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8FB80CA-AC9E-47AA-A128-0730B1DC41B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6399D58C-9F26-4A47-A239-C605140E9014}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50c12593-1f60-4c78-ae66-466ac7ac4eb3"/>
+    <ds:schemaRef ds:uri="62728ae5-e4b5-423f-b7b9-6c15445f3053"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>